--- a/Output/Drive/2. Salud.xlsx
+++ b/Output/Drive/2. Salud.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
-    <t xml:space="preserve">Municipio</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Usuarios de los Servicios de Salud</t>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Población con discapacidad, limitación o con algún problema o condición mental</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">2139</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">3658</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">9317</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">5990</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">56276</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">11444</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">3605</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">2531</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">4715</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">3305</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">6386</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">4624</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">3639</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">2853</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">33544</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">11018</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">11291</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">5648</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">7770</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">4266</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">38122</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">11805</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">3809</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">6604</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">7221</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">4121</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">13386</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">4735</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">3779</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">2912</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">5435</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">4406</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">7310</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">3756</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">19343</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">9134</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">5713</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">3803</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">1840</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">666</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">5072</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">3703</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">1010</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">2985</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">7287</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">6112</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">1616</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">3215</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">6656</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">6284</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">7977</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">3089</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">6914</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">5505</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">13451</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">21722</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">34413</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">10978</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">31010</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">20569</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">2366</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">2375</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">2677</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">1920</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">675</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">766</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">2087</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">2256</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">4458</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">2478</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">870</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">2209</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">11329</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">4269</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">64611</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">38503</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">5232</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">1973</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">31540</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">3135</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">42578</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">9939</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">6919</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">2897</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">3330</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">1423</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">4179</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">4617</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">3167</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">1895</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">385747</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">59388</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">2540</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">1100</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">5536</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">3967</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">4633</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">4412</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">2971</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">1598</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">3536</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">8972</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">6019</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">4109</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">4760</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">8766</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">12861</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">6632</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">7329</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">3923</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">24730</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">4615</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">1447</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">2360</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">6427</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">3828</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">11260</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">7122</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">2861</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">3196</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">78192</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">11310</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">12378</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">5055</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">71036</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">15586</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">3578</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">2770</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">2826</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2120</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
+    <t xml:space="preserve">13067</t>
   </si>
   <si>
     <t xml:space="preserve">9919</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">8876</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">5340</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2754</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">101726</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">35280</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">3254</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">3748</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">3436</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">2382</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">3211</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">2260</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">15550</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">8535</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">34851</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">3937</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">4893</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">4384</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">89045</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">22488</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">83545</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">26432</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">3610</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">2400</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">3373</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">2869</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">2703</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">1838</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">5231</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">5109</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">6938</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">5977</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">3579</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">4418</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">2927</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">12453</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">17969</t>
